--- a/Informe_semana/Tabla_sexos.xlsx
+++ b/Informe_semana/Tabla_sexos.xlsx
@@ -447,28 +447,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>86273</v>
+        <v>0.72</v>
       </c>
       <c r="D2">
-        <v>2229</v>
+        <v>0.72</v>
       </c>
       <c r="E2">
-        <v>16170</v>
+        <v>0.76</v>
       </c>
       <c r="F2">
-        <v>6647</v>
+        <v>0.76</v>
       </c>
       <c r="G2">
-        <v>22358</v>
+        <v>0.77</v>
       </c>
       <c r="H2">
-        <v>10012</v>
+        <v>0.74</v>
       </c>
       <c r="I2">
-        <v>2608</v>
+        <v>0.76</v>
       </c>
       <c r="J2">
-        <v>9612</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -479,28 +479,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>25632</v>
+        <v>0.28</v>
       </c>
       <c r="D3">
-        <v>871</v>
+        <v>0.28</v>
       </c>
       <c r="E3">
-        <v>5205</v>
+        <v>0.24</v>
       </c>
       <c r="F3">
-        <v>2123</v>
+        <v>0.24</v>
       </c>
       <c r="G3">
-        <v>6730</v>
+        <v>0.23</v>
       </c>
       <c r="H3">
-        <v>3442</v>
+        <v>0.26</v>
       </c>
       <c r="I3">
-        <v>804</v>
+        <v>0.24</v>
       </c>
       <c r="J3">
-        <v>2369</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
